--- a/attribute_histograms.xlsx
+++ b/attribute_histograms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Github\sql-query-optimizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaun/Documents/Year 3/CZ4031 - Database System Principles/Project 2/sql-query-optimizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA7CA7E-D1DC-4364-9980-58E59AD70160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B90B4C9-74C4-C249-BF5D-7B9B33CC97FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B0C3F3CB-BC63-4CED-8E36-A4691959642B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23720" windowHeight="14300" xr2:uid="{B0C3F3CB-BC63-4CED-8E36-A4691959642B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="79">
   <si>
     <t>customer</t>
   </si>
@@ -308,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -316,15 +316,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,686 +862,1804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B81402C-D37A-45BD-94B7-C27B814B252D}">
-  <dimension ref="A2:Q41"/>
+  <dimension ref="A2:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F40" sqref="F40"/>
+      <selection pane="topRight" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="O9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="J24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="G26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+    </row>
+    <row r="45" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
